--- a/data/instance/200/schedule_5.xlsx
+++ b/data/instance/200/schedule_5.xlsx
@@ -406,18 +406,18 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.01527777777777778</v>
+        <v>0.03125</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.05486111111111111</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>B5</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -434,14 +434,14 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.0375</v>
+        <v>0.03055555555555555</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.05833333333333333</v>
+        <v>0.05416666666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>C12</t>
+          <t>C11</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -462,18 +462,18 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.01319444444444444</v>
+        <v>0.0375</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.03958333333333333</v>
+        <v>0.06319444444444444</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>E8</t>
+          <t>E23</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -490,18 +490,18 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.03055555555555555</v>
+        <v>0.03611111111111111</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.05416666666666667</v>
+        <v>0.05763888888888889</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>D34</t>
+          <t>D33</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -518,18 +518,18 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.02013888888888889</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.04097222222222222</v>
+        <v>0.03819444444444445</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>D35</t>
+          <t>F53</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -546,18 +546,18 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0.002777777777777778</v>
+        <v>0.003472222222222222</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.02430555555555556</v>
+        <v>0.02569444444444444</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>E26</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -574,14 +574,14 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0.03680555555555556</v>
+        <v>0.02013888888888889</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.06111111111111111</v>
+        <v>0.04722222222222222</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A8</t>
+          <t>E26</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -602,14 +602,14 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.04027777777777778</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>0.05833333333333333</v>
+        <v>0.06319444444444444</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>C13</t>
+          <t>D30</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -630,14 +630,14 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>0.03958333333333333</v>
+        <v>0.03541666666666667</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>0.06597222222222222</v>
+        <v>0.05694444444444444</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>E28</t>
+          <t>C15</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -658,14 +658,14 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.05763888888888889</v>
+        <v>0.03611111111111111</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>D37</t>
+          <t>F57</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -686,18 +686,18 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>0.003472222222222222</v>
+        <v>0.007638888888888889</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02916666666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>F59</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -714,14 +714,14 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>0.02847222222222222</v>
+        <v>0.01319444444444444</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0.05069444444444444</v>
+        <v>0.03541666666666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>C21</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -742,18 +742,18 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>0.004861111111111111</v>
+        <v>0.007638888888888889</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0.02638888888888889</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>F33</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -770,18 +770,18 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>0.01736111111111111</v>
+        <v>0.03541666666666667</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0.03888888888888889</v>
+        <v>0.05694444444444444</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>D32</t>
+          <t>E28</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -798,18 +798,18 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="D16" s="1" t="n">
         <v>0.03125</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <v>0.05277777777777778</v>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>C17</t>
+          <t>F60</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -826,14 +826,14 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>0.01597222222222222</v>
+        <v>0.0375</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0.03888888888888889</v>
+        <v>0.06319444444444444</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>A17</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -854,14 +854,14 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>0.00625</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>0.03194444444444444</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>C22</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -882,18 +882,18 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>0.03958333333333333</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0.06458333333333334</v>
+        <v>0.04652777777777778</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>C26</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -910,18 +910,18 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>0.02013888888888889</v>
+        <v>0.009722222222222222</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0.04236111111111111</v>
+        <v>0.03194444444444444</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>F40</t>
+          <t>F37</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -938,18 +938,18 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>0.02152777777777778</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0.04652777777777778</v>
+        <v>0.03819444444444445</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A18</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -966,18 +966,18 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>0.06180555555555556</v>
+        <v>0.04583333333333333</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>0.08263888888888889</v>
+        <v>0.06875000000000001</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>D46</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -994,14 +994,14 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>0.05</v>
+        <v>0.04791666666666667</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>0.07569444444444444</v>
+        <v>0.07222222222222222</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>C20</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1022,18 +1022,18 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>0.04375</v>
+        <v>0.04791666666666667</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0.07013888888888889</v>
+        <v>0.07361111111111111</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>F34</t>
+          <t>F41</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1050,18 +1050,18 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>0.05902777777777778</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>0.08055555555555556</v>
+        <v>0.09236111111111112</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>D33</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1078,14 +1078,14 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>0.06319444444444444</v>
+        <v>0.0763888888888889</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>0.08680555555555555</v>
+        <v>0.1013888888888889</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1106,14 +1106,14 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>0.05694444444444444</v>
+        <v>0.05347222222222222</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>0.07916666666666666</v>
+        <v>0.075</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>C21</t>
+          <t>F34</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1134,18 +1134,18 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>0.06805555555555555</v>
+        <v>0.04791666666666667</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>0.08958333333333333</v>
+        <v>0.06875000000000001</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>F35</t>
+          <t>D40</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1162,18 +1162,18 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>0.075</v>
+        <v>0.07361111111111111</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>0.09930555555555555</v>
+        <v>0.09861111111111111</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>D35</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1190,18 +1190,18 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>0.06388888888888888</v>
+        <v>0.0625</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>0.08680555555555555</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>C22</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1218,18 +1218,18 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>0.05972222222222223</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>0.08194444444444444</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>F33</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1246,18 +1246,18 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>0.06597222222222222</v>
+        <v>0.06041666666666667</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>0.09166666666666666</v>
+        <v>0.08472222222222223</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>D36</t>
+          <t>F51</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1274,14 +1274,14 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>0.09722222222222222</v>
+        <v>0.08958333333333333</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>0.11875</v>
+        <v>0.1159722222222222</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>D35</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1302,18 +1302,18 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>0.08680555555555555</v>
+        <v>0.1215277777777778</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>0.1138888888888889</v>
+        <v>0.1479166666666667</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>F59</t>
+          <t>D38</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1330,14 +1330,14 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>0.1152777777777778</v>
+        <v>0.08819444444444445</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>0.1423611111111111</v>
+        <v>0.1138888888888889</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>C20</t>
+          <t>A9</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1358,18 +1358,18 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1236111111111111</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>0.1340277777777778</v>
+        <v>0.1472222222222222</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1386,18 +1386,18 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>0.1180555555555556</v>
+        <v>0.09791666666666667</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>0.1402777777777778</v>
+        <v>0.1229166666666667</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>F32</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1414,18 +1414,18 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>0.09166666666666666</v>
+        <v>0.1118055555555556</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>0.11875</v>
+        <v>0.1361111111111111</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>D38</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1442,14 +1442,14 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>0.1118055555555556</v>
+        <v>0.11875</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>0.1375</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>D43</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -1470,18 +1470,18 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>0.1194444444444445</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>0.1409722222222222</v>
+        <v>0.1145833333333333</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>C18</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1498,18 +1498,18 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>0.08541666666666667</v>
+        <v>0.09652777777777778</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>0.1090277777777778</v>
+        <v>0.1208333333333333</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>B9</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1526,14 +1526,14 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>0.1020833333333333</v>
+        <v>0.1090277777777778</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>0.1291666666666667</v>
+        <v>0.1298611111111111</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -1554,14 +1554,14 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>0.09375</v>
+        <v>0.1076388888888889</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>0.1208333333333333</v>
+        <v>0.1319444444444444</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>C21</t>
+          <t>F40</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -1582,14 +1582,14 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1152777777777778</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>0.1354166666666667</v>
+        <v>0.1416666666666667</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>E22</t>
+          <t>F37</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -1610,18 +1610,18 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>0.1173611111111111</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>0.14375</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>C19</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1638,14 +1638,14 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>0.09513888888888888</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>0.1194444444444445</v>
+        <v>0.1159722222222222</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>F50</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -1666,14 +1666,14 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>0.1006944444444444</v>
+        <v>0.10625</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>0.1263888888888889</v>
+        <v>0.13125</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>F34</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -1694,14 +1694,14 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>0.1055555555555556</v>
+        <v>0.1159722222222222</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>0.1326388888888889</v>
+        <v>0.1430555555555555</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>F51</t>
+          <t>A17</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -1722,18 +1722,18 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>0.09097222222222222</v>
+        <v>0.08541666666666667</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>0.1145833333333333</v>
+        <v>0.1104166666666667</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>F55</t>
+          <t>F59</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1750,18 +1750,18 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>0.08611111111111111</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>0.1104166666666667</v>
+        <v>0.1465277777777778</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1778,18 +1778,18 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>0.09375</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>0.1159722222222222</v>
+        <v>0.1104166666666667</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>F50</t>
+          <t>E26</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1809,15 +1809,15 @@
         <v>0.1131944444444444</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>0.1368055555555556</v>
+        <v>0.1402777777777778</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>F36</t>
+          <t>C13</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1834,18 +1834,18 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>0.09236111111111112</v>
+        <v>0.10625</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>0.1138888888888889</v>
+        <v>0.1284722222222222</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>A18</t>
+          <t>F57</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1862,18 +1862,18 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>0.1138888888888889</v>
+        <v>0.1020833333333333</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>0.1375</v>
+        <v>0.1236111111111111</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>F57</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1890,18 +1890,18 @@
         <v>54</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>0.1284722222222222</v>
+        <v>0.1340277777777778</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>0.1493055555555556</v>
+        <v>0.1597222222222222</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1918,18 +1918,18 @@
         <v>55</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>0.1541666666666667</v>
+        <v>0.1423611111111111</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>0.175</v>
+        <v>0.1652777777777778</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>F58</t>
+          <t>F41</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -1946,14 +1946,14 @@
         <v>56</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>0.1465277777777778</v>
+        <v>0.1430555555555555</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>0.1673611111111111</v>
+        <v>0.1680555555555556</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>D49</t>
+          <t>F31</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -1974,14 +1974,14 @@
         <v>57</v>
       </c>
       <c r="C58" s="1" t="n">
+        <v>0.1284722222222222</v>
+      </c>
+      <c r="D58" s="1" t="n">
         <v>0.1548611111111111</v>
       </c>
-      <c r="D58" s="1" t="n">
-        <v>0.1777777777777778</v>
-      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>C21</t>
+          <t>F53</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -2002,14 +2002,14 @@
         <v>58</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>0.1569444444444444</v>
+        <v>0.1506944444444444</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>0.1826388888888889</v>
+        <v>0.1729166666666667</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>F31</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -2030,18 +2030,18 @@
         <v>59</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>0.15</v>
+        <v>0.1486111111111111</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>0.1729166666666667</v>
+        <v>0.1708333333333333</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>C11</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -2058,14 +2058,14 @@
         <v>60</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>0.1541666666666667</v>
+        <v>0.1354166666666667</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>0.1756944444444444</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>A19</t>
+          <t>D43</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -2086,18 +2086,18 @@
         <v>61</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>0.15</v>
+        <v>0.1270833333333333</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>0.1743055555555555</v>
+        <v>0.1486111111111111</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>F40</t>
+          <t>F54</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -2114,14 +2114,14 @@
         <v>62</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>0.1506944444444444</v>
+        <v>0.1618055555555556</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>0.1763888888888889</v>
+        <v>0.1847222222222222</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>E28</t>
+          <t>D36</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -2142,14 +2142,14 @@
         <v>63</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>0.18125</v>
+        <v>0.1798611111111111</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>F36</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -2170,18 +2170,18 @@
         <v>64</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>0.1479166666666667</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>0.16875</v>
+        <v>0.1680555555555556</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>E10</t>
+          <t>D46</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2198,18 +2198,18 @@
         <v>65</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>0.1347222222222222</v>
+        <v>0.1256944444444444</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>0.1604166666666667</v>
+        <v>0.1465277777777778</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>C15</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2226,18 +2226,18 @@
         <v>66</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>0.1590277777777778</v>
+        <v>0.1291666666666667</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>0.1798611111111111</v>
+        <v>0.1506944444444444</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>D40</t>
+          <t>E21</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2254,18 +2254,18 @@
         <v>67</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>0.1604166666666667</v>
+        <v>0.1395833333333333</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>0.1875</v>
+        <v>0.1625</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>F37</t>
+          <t>F50</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2282,18 +2282,18 @@
         <v>68</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>0.1576388888888889</v>
+        <v>0.1465277777777778</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>0.1791666666666667</v>
+        <v>0.1708333333333333</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>D41</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2310,14 +2310,14 @@
         <v>69</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>0.1256944444444444</v>
+        <v>0.1402777777777778</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>0.1479166666666667</v>
+        <v>0.1673611111111111</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>E23</t>
+          <t>D33</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -2338,18 +2338,18 @@
         <v>70</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>0.1895833333333333</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>0.2152777777777778</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>D40</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2366,14 +2366,14 @@
         <v>71</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2041666666666667</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>0.1923611111111111</v>
+        <v>0.2270833333333333</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>D45</t>
+          <t>F41</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -2394,14 +2394,14 @@
         <v>72</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>0.2013888888888889</v>
+        <v>0.2048611111111111</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>0.2256944444444444</v>
+        <v>0.2319444444444445</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>D47</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -2422,14 +2422,14 @@
         <v>73</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>0.1680555555555556</v>
+        <v>0.1986111111111111</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>0.19375</v>
+        <v>0.2243055555555556</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>F33</t>
+          <t>E8</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -2450,18 +2450,18 @@
         <v>74</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>0.1833333333333333</v>
+        <v>0.1986111111111111</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>0.2104166666666667</v>
+        <v>0.2256944444444444</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>F54</t>
+          <t>A14</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2478,18 +2478,18 @@
         <v>75</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>0.2277777777777778</v>
+        <v>0.23125</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>0.2506944444444444</v>
+        <v>0.2527777777777778</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2506,14 +2506,14 @@
         <v>76</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>0.2381944444444444</v>
+        <v>0.2208333333333333</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>0.2611111111111111</v>
+        <v>0.2465277777777778</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>C18</t>
+          <t>C13</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -2534,18 +2534,18 @@
         <v>77</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>0.2111111111111111</v>
+        <v>0.2479166666666667</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>0.2361111111111111</v>
+        <v>0.275</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>A9</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2562,14 +2562,14 @@
         <v>78</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>0.23125</v>
+        <v>0.2131944444444444</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>0.2548611111111111</v>
+        <v>0.2381944444444444</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>F50</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -2590,18 +2590,18 @@
         <v>79</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>0.2256944444444444</v>
+        <v>0.2395833333333333</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>0.2493055555555556</v>
+        <v>0.2618055555555556</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>F37</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2618,14 +2618,14 @@
         <v>80</v>
       </c>
       <c r="C81" s="1" t="n">
+        <v>0.2125</v>
+      </c>
+      <c r="D81" s="1" t="n">
         <v>0.2333333333333333</v>
       </c>
-      <c r="D81" s="1" t="n">
-        <v>0.2583333333333334</v>
-      </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>F52</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -2646,18 +2646,18 @@
         <v>81</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>0.2354166666666667</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>0.2618055555555556</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>C14</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2674,14 +2674,14 @@
         <v>82</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>0.2243055555555556</v>
+        <v>0.2395833333333333</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>0.2451388888888889</v>
+        <v>0.2618055555555556</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>C15</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -2702,14 +2702,14 @@
         <v>83</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>0.2444444444444444</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.2631944444444445</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>C14</t>
+          <t>D35</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -2730,18 +2730,18 @@
         <v>84</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>0.2375</v>
+        <v>0.2138888888888889</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>0.2638888888888889</v>
+        <v>0.2354166666666667</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>D32</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -2758,18 +2758,18 @@
         <v>85</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>0.25</v>
+        <v>0.2680555555555555</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>0.2770833333333333</v>
+        <v>0.29375</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>B10</t>
+          <t>E24</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -2786,18 +2786,18 @@
         <v>86</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>0.2597222222222222</v>
+        <v>0.2798611111111111</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>0.2840277777777778</v>
+        <v>0.3069444444444445</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>F41</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -2814,18 +2814,18 @@
         <v>87</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>0.2597222222222222</v>
+        <v>0.2520833333333333</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>0.2826388888888889</v>
+        <v>0.2791666666666667</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>F40</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -2842,18 +2842,18 @@
         <v>88</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>0.2798611111111111</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>0.3069444444444445</v>
+        <v>0.2958333333333333</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>D42</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -2870,18 +2870,18 @@
         <v>89</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>0.2902777777777778</v>
+        <v>0.2847222222222222</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>0.3173611111111111</v>
+        <v>0.3104166666666667</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>C12</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -2898,14 +2898,14 @@
         <v>90</v>
       </c>
       <c r="C91" s="1" t="n">
+        <v>0.2611111111111111</v>
+      </c>
+      <c r="D91" s="1" t="n">
         <v>0.2847222222222222</v>
       </c>
-      <c r="D91" s="1" t="n">
-        <v>0.3104166666666667</v>
-      </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>D32</t>
+          <t>F31</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -2926,14 +2926,14 @@
         <v>91</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>0.2861111111111111</v>
+        <v>0.2791666666666667</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>0.3131944444444444</v>
+        <v>0.3013888888888889</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>C15</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -2954,14 +2954,14 @@
         <v>92</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>0.2569444444444444</v>
+        <v>0.2534722222222222</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>0.2784722222222222</v>
+        <v>0.2770833333333333</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>F34</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -2982,18 +2982,18 @@
         <v>93</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>0.2701388888888889</v>
+        <v>0.2576388888888889</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>0.2930555555555556</v>
+        <v>0.2798611111111111</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>E23</t>
+          <t>E8</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -3010,18 +3010,18 @@
         <v>94</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>0.2888888888888889</v>
+        <v>0.2909722222222222</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>0.3111111111111111</v>
+        <v>0.3118055555555556</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>B5</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -3038,18 +3038,18 @@
         <v>95</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>0.2611111111111111</v>
+        <v>0.2791666666666667</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.3013888888888889</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>D32</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -3066,14 +3066,14 @@
         <v>96</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>0.2770833333333333</v>
+        <v>0.2576388888888889</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>0.2986111111111111</v>
+        <v>0.2791666666666667</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>E21</t>
+          <t>F58</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -3094,18 +3094,18 @@
         <v>97</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>0.2729166666666666</v>
+        <v>0.2791666666666667</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>0.2972222222222222</v>
+        <v>0.3</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>F31</t>
+          <t>E22</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -3122,18 +3122,18 @@
         <v>98</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>0.2791666666666667</v>
+        <v>0.2569444444444444</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>0.3020833333333333</v>
+        <v>0.2826388888888889</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>C12</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -3150,18 +3150,18 @@
         <v>99</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>0.2756944444444445</v>
+        <v>0.2576388888888889</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>0.3020833333333333</v>
+        <v>0.2798611111111111</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>A18</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -3178,18 +3178,18 @@
         <v>100</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>0.2895833333333334</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>0.3118055555555556</v>
+        <v>0.2923611111111111</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -3206,14 +3206,14 @@
         <v>101</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>0.3201388888888889</v>
+        <v>0.3291666666666667</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>0.34375</v>
+        <v>0.3506944444444444</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>A18</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -3234,18 +3234,18 @@
         <v>102</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>0.3125</v>
+        <v>0.2993055555555555</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>0.3368055555555556</v>
+        <v>0.3222222222222222</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>D32</t>
+          <t>C25</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -3262,18 +3262,18 @@
         <v>103</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>0.2930555555555556</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>0.3194444444444444</v>
+        <v>0.3173611111111111</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>F54</t>
+          <t>D34</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -3290,18 +3290,18 @@
         <v>104</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>0.3236111111111111</v>
+        <v>0.3326388888888889</v>
       </c>
       <c r="D105" s="1" t="n">
-        <v>0.3486111111111111</v>
+        <v>0.3569444444444445</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>F60</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -3318,14 +3318,14 @@
         <v>105</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>0.325</v>
+        <v>0.3125</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>0.3458333333333333</v>
+        <v>0.3361111111111111</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>E8</t>
+          <t>D32</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -3346,18 +3346,18 @@
         <v>106</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>0.33125</v>
+        <v>0.3277777777777778</v>
       </c>
       <c r="D107" s="1" t="n">
-        <v>0.3534722222222222</v>
+        <v>0.3493055555555555</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -3374,18 +3374,18 @@
         <v>107</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>0.2979166666666667</v>
+        <v>0.3083333333333333</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>0.3208333333333334</v>
+        <v>0.3347222222222222</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>A17</t>
+          <t>D43</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -3402,18 +3402,18 @@
         <v>108</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>0.3201388888888889</v>
+        <v>0.3243055555555556</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>0.34375</v>
+        <v>0.3465277777777778</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>D47</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -3430,18 +3430,18 @@
         <v>109</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.3125</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>0.3173611111111111</v>
+        <v>0.3381944444444445</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>C13</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -3458,18 +3458,18 @@
         <v>110</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>0.325</v>
+        <v>0.3034722222222222</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>0.3486111111111111</v>
+        <v>0.3305555555555555</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>D46</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -3486,18 +3486,18 @@
         <v>111</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>0.3284722222222222</v>
+        <v>0.3125</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>0.35</v>
+        <v>0.3395833333333333</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>D33</t>
+          <t>C16</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -3514,18 +3514,18 @@
         <v>112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>0.3138888888888889</v>
+        <v>0.3006944444444444</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>0.3361111111111111</v>
+        <v>0.3236111111111111</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>B9</t>
+          <t>A18</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -3542,18 +3542,18 @@
         <v>113</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>0.3</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>0.3270833333333333</v>
+        <v>0.3375</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>D43</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -3570,18 +3570,18 @@
         <v>114</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>0.3166666666666667</v>
+        <v>0.33125</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>0.3375</v>
+        <v>0.3527777777777778</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>E22</t>
+          <t>F41</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -3598,18 +3598,18 @@
         <v>115</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>0.3</v>
+        <v>0.3041666666666666</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>0.3270833333333333</v>
+        <v>0.3305555555555555</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>F51</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -3626,14 +3626,14 @@
         <v>116</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>0.3</v>
+        <v>0.3180555555555555</v>
       </c>
       <c r="D117" s="1" t="n">
-        <v>0.325</v>
+        <v>0.3402777777777778</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>F30</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -3654,14 +3654,14 @@
         <v>117</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>0.3131944444444444</v>
+        <v>0.3125</v>
       </c>
       <c r="D118" s="1" t="n">
-        <v>0.3402777777777778</v>
+        <v>0.3347222222222222</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>C18</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -3682,18 +3682,18 @@
         <v>118</v>
       </c>
       <c r="C119" s="1" t="n">
+        <v>0.2972222222222222</v>
+      </c>
+      <c r="D119" s="1" t="n">
         <v>0.3194444444444444</v>
       </c>
-      <c r="D119" s="1" t="n">
-        <v>0.3451388888888889</v>
-      </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>D48</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -3710,18 +3710,18 @@
         <v>119</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>0.3034722222222222</v>
+        <v>0.3291666666666667</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>0.3243055555555556</v>
+        <v>0.3520833333333334</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>D35</t>
+          <t>D48</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -3741,15 +3741,15 @@
         <v>0.3083333333333333</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>0.3347222222222222</v>
+        <v>0.3298611111111111</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>A19</t>
+          <t>E25</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -3766,18 +3766,18 @@
         <v>121</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>0.3277777777777778</v>
+        <v>0.3173611111111111</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>0.3486111111111111</v>
+        <v>0.3409722222222222</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>E26</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -3794,14 +3794,14 @@
         <v>122</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>0.3611111111111111</v>
+        <v>0.3534722222222222</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>0.3819444444444444</v>
+        <v>0.3763888888888889</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>F30</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -3822,18 +3822,18 @@
         <v>123</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>0.3652777777777778</v>
+        <v>0.3486111111111111</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>0.3909722222222222</v>
+        <v>0.3701388888888889</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>E25</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -3850,14 +3850,14 @@
         <v>124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>0.3722222222222222</v>
+        <v>0.3416666666666667</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>0.3979166666666666</v>
+        <v>0.36875</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A16</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -3878,18 +3878,18 @@
         <v>125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>0.3590277777777778</v>
+        <v>0.3583333333333333</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>0.3854166666666667</v>
+        <v>0.3805555555555555</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>A12</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -3906,14 +3906,14 @@
         <v>126</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>0.3638888888888889</v>
+        <v>0.3694444444444445</v>
       </c>
       <c r="D127" s="1" t="n">
-        <v>0.3847222222222222</v>
+        <v>0.3944444444444444</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>F42</t>
+          <t>F58</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -3934,14 +3934,14 @@
         <v>127</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>0.4020833333333333</v>
+        <v>0.3861111111111111</v>
       </c>
       <c r="D128" s="1" t="n">
-        <v>0.4236111111111111</v>
+        <v>0.4083333333333333</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>A14</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -3962,18 +3962,18 @@
         <v>128</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>0.3986111111111111</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="D129" s="1" t="n">
-        <v>0.4222222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>D38</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
@@ -3990,18 +3990,18 @@
         <v>129</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>0.4041666666666667</v>
+        <v>0.3930555555555555</v>
       </c>
       <c r="D130" s="1" t="n">
-        <v>0.4305555555555556</v>
+        <v>0.4138888888888889</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>C19</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -4018,18 +4018,18 @@
         <v>130</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>0.3840277777777778</v>
+        <v>0.4076388888888889</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>0.40625</v>
+        <v>0.4340277777777778</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -4046,18 +4046,18 @@
         <v>131</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>0.3930555555555555</v>
+        <v>0.38125</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>0.4173611111111111</v>
+        <v>0.4069444444444444</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>D40</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -4074,18 +4074,18 @@
         <v>132</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>0.4097222222222222</v>
+        <v>0.3847222222222222</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>0.4305555555555556</v>
+        <v>0.4090277777777778</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -4102,14 +4102,14 @@
         <v>133</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>0.3895833333333333</v>
+        <v>0.3826388888888889</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>0.4111111111111111</v>
+        <v>0.4097222222222222</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>A17</t>
+          <t>C20</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -4130,18 +4130,18 @@
         <v>134</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>0.4145833333333334</v>
+        <v>0.4006944444444445</v>
       </c>
       <c r="D135" s="1" t="n">
-        <v>0.4375</v>
+        <v>0.4215277777777778</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -4158,18 +4158,18 @@
         <v>135</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>0.3923611111111111</v>
+        <v>0.3840277777777778</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>0.4180555555555556</v>
+        <v>0.4083333333333333</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -4186,14 +4186,14 @@
         <v>136</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>0.4076388888888889</v>
+        <v>0.4090277777777778</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>0.4326388888888889</v>
+        <v>0.4354166666666667</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>E8</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -4214,18 +4214,18 @@
         <v>137</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>0.3902777777777778</v>
+        <v>0.4055555555555556</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>0.4125</v>
+        <v>0.4263888888888889</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>D35</t>
+          <t>D31</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -4242,14 +4242,14 @@
         <v>138</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>0.3798611111111111</v>
+        <v>0.3916666666666667</v>
       </c>
       <c r="D139" s="1" t="n">
-        <v>0.4020833333333333</v>
+        <v>0.4159722222222222</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>E27</t>
+          <t>E21</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -4270,18 +4270,18 @@
         <v>139</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>0.3965277777777778</v>
+        <v>0.3854166666666667</v>
       </c>
       <c r="D140" s="1" t="n">
-        <v>0.4194444444444445</v>
+        <v>0.4125</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>D47</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
@@ -4298,14 +4298,14 @@
         <v>140</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>0.4229166666666667</v>
+        <v>0.4069444444444444</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>E21</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -4326,18 +4326,18 @@
         <v>141</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>0.3798611111111111</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="D142" s="1" t="n">
-        <v>0.40625</v>
+        <v>0.4243055555555555</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>F50</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -4354,14 +4354,14 @@
         <v>142</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>0.3826388888888889</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="D143" s="1" t="n">
-        <v>0.4069444444444444</v>
+        <v>0.4215277777777778</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -4382,14 +4382,14 @@
         <v>143</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>0.3972222222222222</v>
+        <v>0.3902777777777778</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>0.4222222222222222</v>
+        <v>0.4125</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>B10</t>
+          <t>C21</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -4410,14 +4410,14 @@
         <v>144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>0.4083333333333333</v>
+        <v>0.4131944444444444</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>0.4326388888888889</v>
+        <v>0.4402777777777778</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>E24</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -4438,18 +4438,18 @@
         <v>145</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>0.4076388888888889</v>
+        <v>0.3895833333333333</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>0.4326388888888889</v>
+        <v>0.4145833333333334</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>D34</t>
+          <t>D48</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
@@ -4466,18 +4466,18 @@
         <v>146</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>0.4138888888888889</v>
+        <v>0.3916666666666667</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>0.4409722222222222</v>
+        <v>0.4125</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>E22</t>
+          <t>F42</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
@@ -4494,14 +4494,14 @@
         <v>147</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>0.3805555555555555</v>
+        <v>0.3944444444444444</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>0.4034722222222222</v>
+        <v>0.4208333333333333</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>D30</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -4522,14 +4522,14 @@
         <v>148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>0.3784722222222222</v>
+        <v>0.3979166666666666</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>0.4034722222222222</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>C20</t>
+          <t>D49</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -4550,18 +4550,18 @@
         <v>149</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>0.4548611111111111</v>
+        <v>0.4201388888888889</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>0.4819444444444445</v>
+        <v>0.4423611111111111</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>E27</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -4578,18 +4578,18 @@
         <v>150</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>0.4451388888888889</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>0.4715277777777778</v>
+        <v>0.4756944444444444</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>A17</t>
+          <t>C25</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
@@ -4606,18 +4606,18 @@
         <v>151</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>0.4194444444444445</v>
+        <v>0.4284722222222222</v>
       </c>
       <c r="D152" s="1" t="n">
-        <v>0.4458333333333334</v>
+        <v>0.4534722222222222</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
@@ -4634,18 +4634,18 @@
         <v>152</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>0.4291666666666666</v>
+        <v>0.4486111111111111</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>0.4541666666666667</v>
+        <v>0.4729166666666667</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>F50</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -4662,18 +4662,18 @@
         <v>153</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.4409722222222222</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>0.4770833333333334</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>D37</t>
+          <t>F41</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
@@ -4690,14 +4690,14 @@
         <v>154</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4465277777777778</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>0.4743055555555555</v>
+        <v>0.4729166666666667</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>E25</t>
+          <t>D32</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -4718,14 +4718,14 @@
         <v>155</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>0.4423611111111111</v>
+        <v>0.4291666666666666</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>0.4652777777777778</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>C13</t>
+          <t>D48</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -4746,18 +4746,18 @@
         <v>156</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>0.41875</v>
+        <v>0.4430555555555555</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>0.4409722222222222</v>
+        <v>0.4638888888888889</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>D48</t>
+          <t>C26</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -4774,18 +4774,18 @@
         <v>157</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>0.4951388888888889</v>
+        <v>0.4805555555555556</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>0.5201388888888889</v>
+        <v>0.5069444444444444</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>F58</t>
+          <t>D45</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
@@ -4802,18 +4802,18 @@
         <v>158</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>0.46875</v>
+        <v>0.4743055555555555</v>
       </c>
       <c r="D159" s="1" t="n">
-        <v>0.4902777777777778</v>
+        <v>0.4951388888888889</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>B8</t>
+          <t>C12</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -4830,14 +4830,14 @@
         <v>159</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>0.4979166666666667</v>
+        <v>0.4972222222222222</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>0.5215277777777778</v>
+        <v>0.51875</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>C25</t>
+          <t>C20</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -4861,15 +4861,15 @@
         <v>0.4659722222222222</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>0.4909722222222222</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>C19</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -4886,18 +4886,18 @@
         <v>161</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>0.48125</v>
+        <v>0.4895833333333333</v>
       </c>
       <c r="D162" s="1" t="n">
-        <v>0.5041666666666667</v>
+        <v>0.5118055555555555</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>F52</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -4914,14 +4914,14 @@
         <v>162</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>0.4694444444444444</v>
+        <v>0.49375</v>
       </c>
       <c r="D163" s="1" t="n">
-        <v>0.4916666666666666</v>
+        <v>0.5173611111111112</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>F53</t>
+          <t>E20</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -4942,14 +4942,14 @@
         <v>163</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>0.4638888888888889</v>
+        <v>0.4972222222222222</v>
       </c>
       <c r="D164" s="1" t="n">
-        <v>0.4895833333333333</v>
+        <v>0.5236111111111111</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>D35</t>
+          <t>F59</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -4970,10 +4970,10 @@
         <v>164</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>0.4951388888888889</v>
+        <v>0.4756944444444444</v>
       </c>
       <c r="D165" s="1" t="n">
-        <v>0.5215277777777778</v>
+        <v>0.5027777777777778</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -4998,14 +4998,14 @@
         <v>165</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>0.4840277777777778</v>
+        <v>0.4597222222222222</v>
       </c>
       <c r="D166" s="1" t="n">
-        <v>0.5097222222222222</v>
+        <v>0.4805555555555556</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>C17</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -5026,14 +5026,14 @@
         <v>166</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>0.4680555555555556</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="D167" s="1" t="n">
-        <v>0.49375</v>
+        <v>0.50625</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>D46</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -5054,18 +5054,18 @@
         <v>167</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>0.4597222222222222</v>
+        <v>0.4784722222222222</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>0.4805555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>C17</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G168" t="n">
         <v>0</v>
@@ -5082,18 +5082,18 @@
         <v>168</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>0.5243055555555556</v>
+        <v>0.5027777777777778</v>
       </c>
       <c r="D169" s="1" t="n">
-        <v>0.5458333333333333</v>
+        <v>0.5284722222222222</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>C20</t>
+          <t>E24</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
@@ -5110,14 +5110,14 @@
         <v>169</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>0.5298611111111111</v>
+        <v>0.5263888888888889</v>
       </c>
       <c r="D170" s="1" t="n">
-        <v>0.55625</v>
+        <v>0.5527777777777778</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>C17</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -5138,18 +5138,18 @@
         <v>170</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>0.5041666666666667</v>
+        <v>0.5020833333333333</v>
       </c>
       <c r="D171" s="1" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.5270833333333333</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -5166,14 +5166,14 @@
         <v>171</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>0.53125</v>
+        <v>0.5270833333333333</v>
       </c>
       <c r="D172" s="1" t="n">
-        <v>0.5569444444444445</v>
+        <v>0.5541666666666667</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>F59</t>
+          <t>A12</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -5194,14 +5194,14 @@
         <v>172</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5118055555555555</v>
       </c>
       <c r="D173" s="1" t="n">
-        <v>0.5326388888888889</v>
+        <v>0.5354166666666667</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>E22</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -5222,18 +5222,18 @@
         <v>173</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>0.5215277777777778</v>
+        <v>0.5361111111111111</v>
       </c>
       <c r="D174" s="1" t="n">
-        <v>0.5444444444444444</v>
+        <v>0.5569444444444445</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>D43</t>
+          <t>F53</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -5250,18 +5250,18 @@
         <v>174</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.5027777777777778</v>
       </c>
       <c r="D175" s="1" t="n">
-        <v>0.5381944444444444</v>
+        <v>0.5298611111111111</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>C15</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -5278,18 +5278,18 @@
         <v>175</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>0.5131944444444444</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="D176" s="1" t="n">
-        <v>0.5340277777777778</v>
+        <v>0.5381944444444444</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>D47</t>
+          <t>F32</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -5306,18 +5306,18 @@
         <v>176</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>0.5236111111111111</v>
+        <v>0.5284722222222222</v>
       </c>
       <c r="D177" s="1" t="n">
-        <v>0.5458333333333333</v>
+        <v>0.5527777777777778</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>A21</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
@@ -5334,14 +5334,14 @@
         <v>177</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>0.5388888888888889</v>
+        <v>0.5319444444444444</v>
       </c>
       <c r="D178" s="1" t="n">
-        <v>0.5597222222222222</v>
+        <v>0.5590277777777778</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>E22</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -5362,14 +5362,14 @@
         <v>178</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>0.5041666666666667</v>
+        <v>0.5243055555555556</v>
       </c>
       <c r="D179" s="1" t="n">
-        <v>0.5256944444444445</v>
+        <v>0.5465277777777777</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>A8</t>
+          <t>A18</t>
         </is>
       </c>
       <c r="F179" t="n">
@@ -5390,18 +5390,18 @@
         <v>179</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>0.5027777777777778</v>
+        <v>0.5284722222222222</v>
       </c>
       <c r="D180" s="1" t="n">
-        <v>0.5263888888888889</v>
+        <v>0.5527777777777778</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>A15</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
@@ -5418,14 +5418,14 @@
         <v>180</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>0.5340277777777778</v>
+        <v>0.5034722222222222</v>
       </c>
       <c r="D181" s="1" t="n">
-        <v>0.5604166666666667</v>
+        <v>0.5305555555555556</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>C15</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -5446,10 +5446,10 @@
         <v>181</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>0.5006944444444444</v>
+        <v>0.5229166666666667</v>
       </c>
       <c r="D182" s="1" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -5474,18 +5474,18 @@
         <v>182</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>0.5215277777777778</v>
+        <v>0.5173611111111112</v>
       </c>
       <c r="D183" s="1" t="n">
-        <v>0.5465277777777777</v>
+        <v>0.5409722222222222</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -5502,14 +5502,14 @@
         <v>183</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>0.5305555555555556</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="D184" s="1" t="n">
-        <v>0.55625</v>
+        <v>0.5354166666666667</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>F33</t>
+          <t>F31</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -5530,18 +5530,18 @@
         <v>184</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>0.5180555555555556</v>
+        <v>0.5270833333333333</v>
       </c>
       <c r="D185" s="1" t="n">
-        <v>0.5444444444444444</v>
+        <v>0.5513888888888889</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>E23</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
@@ -5558,18 +5558,18 @@
         <v>185</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>0.5625</v>
+        <v>0.5645833333333333</v>
       </c>
       <c r="D186" s="1" t="n">
-        <v>0.5888888888888889</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G186" t="n">
         <v>0</v>
@@ -5586,14 +5586,14 @@
         <v>186</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>0.5805555555555556</v>
+        <v>0.5513888888888889</v>
       </c>
       <c r="D187" s="1" t="n">
-        <v>0.6020833333333333</v>
+        <v>0.5743055555555555</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -5614,14 +5614,14 @@
         <v>187</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>0.5423611111111111</v>
+        <v>0.5527777777777778</v>
       </c>
       <c r="D188" s="1" t="n">
-        <v>0.5631944444444444</v>
+        <v>0.5763888888888888</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>A14</t>
+          <t>B8</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -5642,18 +5642,18 @@
         <v>188</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>0.5486111111111112</v>
+        <v>0.5576388888888889</v>
       </c>
       <c r="D189" s="1" t="n">
-        <v>0.5694444444444444</v>
+        <v>0.5784722222222223</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>C25</t>
+          <t>F32</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G189" t="n">
         <v>0</v>
@@ -5670,18 +5670,18 @@
         <v>189</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>0.5743055555555555</v>
+        <v>0.5708333333333333</v>
       </c>
       <c r="D190" s="1" t="n">
-        <v>0.5972222222222222</v>
+        <v>0.5958333333333333</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>F53</t>
+          <t>D36</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G190" t="n">
         <v>0</v>
@@ -5698,18 +5698,18 @@
         <v>190</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>0.5611111111111111</v>
+        <v>0.5819444444444445</v>
       </c>
       <c r="D191" s="1" t="n">
-        <v>0.5861111111111111</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G191" t="n">
         <v>0</v>
@@ -5726,14 +5726,14 @@
         <v>191</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5618055555555556</v>
       </c>
       <c r="D192" s="1" t="n">
-        <v>0.5881944444444445</v>
+        <v>0.5861111111111111</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>B10</t>
+          <t>C14</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -5754,18 +5754,18 @@
         <v>192</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>0.5520833333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D193" s="1" t="n">
         <v>0.5777777777777777</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>E23</t>
+          <t>D40</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G193" t="n">
         <v>0</v>
@@ -5782,14 +5782,14 @@
         <v>193</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>0.58125</v>
+        <v>0.575</v>
       </c>
       <c r="D194" s="1" t="n">
-        <v>0.6069444444444444</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>D30</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -5810,18 +5810,18 @@
         <v>194</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>0.5513888888888889</v>
+        <v>0.56875</v>
       </c>
       <c r="D195" s="1" t="n">
-        <v>0.5770833333333333</v>
+        <v>0.5902777777777778</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>F56</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G195" t="n">
         <v>0</v>
@@ -5838,18 +5838,18 @@
         <v>195</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>0.5430555555555555</v>
+        <v>0.5576388888888889</v>
       </c>
       <c r="D196" s="1" t="n">
-        <v>0.5694444444444444</v>
+        <v>0.5847222222222223</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>E27</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G196" t="n">
         <v>0</v>
@@ -5866,14 +5866,14 @@
         <v>196</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>0.55625</v>
+        <v>0.5423611111111111</v>
       </c>
       <c r="D197" s="1" t="n">
-        <v>0.5791666666666667</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>D49</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -5894,14 +5894,14 @@
         <v>197</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>0.5534722222222223</v>
+        <v>0.5791666666666667</v>
       </c>
       <c r="D198" s="1" t="n">
-        <v>0.5770833333333333</v>
+        <v>0.6</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>F52</t>
+          <t>F58</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -5922,18 +5922,18 @@
         <v>198</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>0.5430555555555555</v>
+        <v>0.5625</v>
       </c>
       <c r="D199" s="1" t="n">
-        <v>0.5645833333333333</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>D48</t>
+          <t>D43</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G199" t="n">
         <v>0</v>
@@ -5950,18 +5950,18 @@
         <v>199</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>0.5736111111111111</v>
+        <v>0.5791666666666667</v>
       </c>
       <c r="D200" s="1" t="n">
-        <v>0.5965277777777778</v>
+        <v>0.6027777777777777</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>A8</t>
+          <t>F60</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G200" t="n">
         <v>0</v>
@@ -5978,10 +5978,10 @@
         <v>200</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>0.5604166666666667</v>
+        <v>0.5652777777777778</v>
       </c>
       <c r="D201" s="1" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5895833333333333</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G201" t="n">
         <v>0</v>
